--- a/DataFormat/EditedData/Data_Nyungwe_nig_sylv_April_1.xlsx
+++ b/DataFormat/EditedData/Data_Nyungwe_nig_sylv_April_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\farrmt\Documents\HMSNO\DataFormat\EditedData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6094BF-19FF-4671-BDEA-1584676671A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85EE81F4-1840-40F7-A148-CAE9CFF5F3BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8445" yWindow="1515" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nigrifrons" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="110">
   <si>
     <t>R1</t>
   </si>
@@ -345,87 +345,6 @@
   </si>
   <si>
     <t>TR41-81</t>
-  </si>
-  <si>
-    <t>TR00-00</t>
-  </si>
-  <si>
-    <t>TR00-02</t>
-  </si>
-  <si>
-    <t>TR05-00</t>
-  </si>
-  <si>
-    <t>TR07-03</t>
-  </si>
-  <si>
-    <t>TR07-04</t>
-  </si>
-  <si>
-    <t>TR00-09</t>
-  </si>
-  <si>
-    <t>TR00-20</t>
-  </si>
-  <si>
-    <t>TR00-B</t>
-  </si>
-  <si>
-    <t>TR00-N</t>
-  </si>
-  <si>
-    <t>TR00-S</t>
-  </si>
-  <si>
-    <t>TR03-25</t>
-  </si>
-  <si>
-    <t>TR03-26</t>
-  </si>
-  <si>
-    <t>TR04-27</t>
-  </si>
-  <si>
-    <t>TR04-28</t>
-  </si>
-  <si>
-    <t>TR05-B</t>
-  </si>
-  <si>
-    <t>TR05-N</t>
-  </si>
-  <si>
-    <t>TR05-S</t>
-  </si>
-  <si>
-    <t>TR07-B</t>
-  </si>
-  <si>
-    <t>TR07-N</t>
-  </si>
-  <si>
-    <t>TR07-S</t>
-  </si>
-  <si>
-    <t>TR08-36</t>
-  </si>
-  <si>
-    <t>TR20-42</t>
-  </si>
-  <si>
-    <t>TR26-50</t>
-  </si>
-  <si>
-    <t>TR30-60</t>
-  </si>
-  <si>
-    <t>TR30-62</t>
-  </si>
-  <si>
-    <t>TR36-70</t>
-  </si>
-  <si>
-    <t>TR40-80</t>
   </si>
   <si>
     <t>deployment ID</t>
@@ -813,23 +732,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A282" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:A292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="6" customWidth="1"/>
-    <col min="2" max="7" width="5.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="6" customWidth="1"/>
+    <col min="2" max="7" width="5.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="15"/>
-    <col min="12" max="16384" width="9.1796875" style="6"/>
+    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="15"/>
+    <col min="12" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -853,19 +772,19 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
@@ -903,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -941,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -979,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1017,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1055,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1093,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>64</v>
       </c>
@@ -1245,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>65</v>
       </c>
@@ -1283,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1359,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
@@ -1435,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>67</v>
       </c>
@@ -1473,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -1511,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -1549,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1663,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1701,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -1739,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -1777,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1853,7 +1772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -1891,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
@@ -1929,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1967,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -2005,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
@@ -2043,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>71</v>
       </c>
@@ -2081,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>72</v>
       </c>
@@ -2119,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>73</v>
       </c>
@@ -2157,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -2195,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>30</v>
       </c>
@@ -2233,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>31</v>
       </c>
@@ -2271,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>32</v>
       </c>
@@ -2309,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>33</v>
       </c>
@@ -2347,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>34</v>
       </c>
@@ -2385,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>74</v>
       </c>
@@ -2423,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>35</v>
       </c>
@@ -2461,7 +2380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>36</v>
       </c>
@@ -2499,7 +2418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
@@ -2537,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>75</v>
       </c>
@@ -2575,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>76</v>
       </c>
@@ -2613,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>77</v>
       </c>
@@ -2651,7 +2570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>78</v>
       </c>
@@ -2689,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>79</v>
       </c>
@@ -2727,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>80</v>
       </c>
@@ -2765,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>81</v>
       </c>
@@ -2803,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>82</v>
       </c>
@@ -2841,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
@@ -2879,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>39</v>
       </c>
@@ -2917,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>40</v>
       </c>
@@ -2955,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>83</v>
       </c>
@@ -2993,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>84</v>
       </c>
@@ -3031,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
@@ -3069,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>86</v>
       </c>
@@ -3107,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>41</v>
       </c>
@@ -3145,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>42</v>
       </c>
@@ -3183,7 +3102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>43</v>
       </c>
@@ -3221,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>87</v>
       </c>
@@ -3259,7 +3178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>88</v>
       </c>
@@ -3297,7 +3216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
@@ -3335,7 +3254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>45</v>
       </c>
@@ -3373,7 +3292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>46</v>
       </c>
@@ -3411,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>89</v>
       </c>
@@ -3449,7 +3368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>90</v>
       </c>
@@ -3487,7 +3406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>91</v>
       </c>
@@ -3525,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>92</v>
       </c>
@@ -3563,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>93</v>
       </c>
@@ -3601,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
@@ -3639,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>95</v>
       </c>
@@ -3677,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
@@ -3715,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>97</v>
       </c>
@@ -3753,7 +3672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>98</v>
       </c>
@@ -3791,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>99</v>
       </c>
@@ -3829,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>100</v>
       </c>
@@ -3867,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>101</v>
       </c>
@@ -3905,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>102</v>
       </c>
@@ -3943,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>103</v>
       </c>
@@ -3981,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>47</v>
       </c>
@@ -4019,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>48</v>
       </c>
@@ -4057,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>49</v>
       </c>
@@ -4095,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>50</v>
       </c>
@@ -4133,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>51</v>
       </c>
@@ -4171,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
@@ -4209,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>53</v>
       </c>
@@ -4247,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>55</v>
       </c>
@@ -4323,7 +4242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>104</v>
       </c>
@@ -4361,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>56</v>
       </c>
@@ -4399,7 +4318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>57</v>
       </c>
@@ -4437,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>58</v>
       </c>
@@ -4475,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>59</v>
       </c>
@@ -4513,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>60</v>
       </c>
@@ -4551,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>61</v>
       </c>
@@ -4589,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>62</v>
       </c>
@@ -4627,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>8</v>
       </c>
@@ -4665,7 +4584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
@@ -4703,7 +4622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
@@ -4741,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>63</v>
       </c>
@@ -4779,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -4817,7 +4736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>12</v>
       </c>
@@ -4855,7 +4774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>13</v>
       </c>
@@ -4893,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>64</v>
       </c>
@@ -4931,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>65</v>
       </c>
@@ -4969,7 +4888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>14</v>
       </c>
@@ -5007,7 +4926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>15</v>
       </c>
@@ -5045,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>16</v>
       </c>
@@ -5083,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>66</v>
       </c>
@@ -5121,7 +5040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>67</v>
       </c>
@@ -5159,7 +5078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>17</v>
       </c>
@@ -5197,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>18</v>
       </c>
@@ -5235,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>19</v>
       </c>
@@ -5273,7 +5192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>20</v>
       </c>
@@ -5311,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>21</v>
       </c>
@@ -5349,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>22</v>
       </c>
@@ -5387,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>68</v>
       </c>
@@ -5425,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>69</v>
       </c>
@@ -5463,7 +5382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -5501,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>24</v>
       </c>
@@ -5539,7 +5458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>25</v>
       </c>
@@ -5577,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>26</v>
       </c>
@@ -5615,7 +5534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>27</v>
       </c>
@@ -5653,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>28</v>
       </c>
@@ -5691,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>70</v>
       </c>
@@ -5729,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>71</v>
       </c>
@@ -5767,7 +5686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>72</v>
       </c>
@@ -5805,7 +5724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>73</v>
       </c>
@@ -5843,7 +5762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>29</v>
       </c>
@@ -5881,7 +5800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>30</v>
       </c>
@@ -5919,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>31</v>
       </c>
@@ -5957,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>32</v>
       </c>
@@ -5995,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>33</v>
       </c>
@@ -6033,7 +5952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>34</v>
       </c>
@@ -6071,7 +5990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>74</v>
       </c>
@@ -6109,7 +6028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>35</v>
       </c>
@@ -6147,7 +6066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>36</v>
       </c>
@@ -6185,7 +6104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>37</v>
       </c>
@@ -6223,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
@@ -6261,7 +6180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>76</v>
       </c>
@@ -6299,7 +6218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>77</v>
       </c>
@@ -6337,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>78</v>
       </c>
@@ -6375,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>79</v>
       </c>
@@ -6413,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>80</v>
       </c>
@@ -6451,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>81</v>
       </c>
@@ -6489,7 +6408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>82</v>
       </c>
@@ -6527,7 +6446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>38</v>
       </c>
@@ -6565,7 +6484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>39</v>
       </c>
@@ -6603,7 +6522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>40</v>
       </c>
@@ -6641,7 +6560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>83</v>
       </c>
@@ -6679,7 +6598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>84</v>
       </c>
@@ -6717,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>85</v>
       </c>
@@ -6755,7 +6674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>86</v>
       </c>
@@ -6793,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>41</v>
       </c>
@@ -6831,7 +6750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>42</v>
       </c>
@@ -6869,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>43</v>
       </c>
@@ -6907,7 +6826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>87</v>
       </c>
@@ -6945,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>88</v>
       </c>
@@ -6983,7 +6902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>44</v>
       </c>
@@ -7021,7 +6940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>45</v>
       </c>
@@ -7059,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>46</v>
       </c>
@@ -7097,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>89</v>
       </c>
@@ -7135,7 +7054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>90</v>
       </c>
@@ -7173,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>91</v>
       </c>
@@ -7211,7 +7130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>92</v>
       </c>
@@ -7249,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -7287,7 +7206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>94</v>
       </c>
@@ -7325,7 +7244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>95</v>
       </c>
@@ -7363,7 +7282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>96</v>
       </c>
@@ -7401,7 +7320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>97</v>
       </c>
@@ -7439,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>98</v>
       </c>
@@ -7477,7 +7396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>99</v>
       </c>
@@ -7515,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>100</v>
       </c>
@@ -7553,7 +7472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>101</v>
       </c>
@@ -7591,7 +7510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>102</v>
       </c>
@@ -7629,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>103</v>
       </c>
@@ -7667,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>47</v>
       </c>
@@ -7705,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>48</v>
       </c>
@@ -7743,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>49</v>
       </c>
@@ -7781,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>50</v>
       </c>
@@ -7819,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>51</v>
       </c>
@@ -7857,7 +7776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>52</v>
       </c>
@@ -7895,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>53</v>
       </c>
@@ -7933,7 +7852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>54</v>
       </c>
@@ -7971,7 +7890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>55</v>
       </c>
@@ -8009,7 +7928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>104</v>
       </c>
@@ -8047,7 +7966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>56</v>
       </c>
@@ -8085,7 +8004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>57</v>
       </c>
@@ -8123,7 +8042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>58</v>
       </c>
@@ -8161,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>59</v>
       </c>
@@ -8199,7 +8118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>60</v>
       </c>
@@ -8237,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>61</v>
       </c>
@@ -8275,7 +8194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>62</v>
       </c>
@@ -8313,7 +8232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>8</v>
       </c>
@@ -8351,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>9</v>
       </c>
@@ -8389,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>10</v>
       </c>
@@ -8427,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>63</v>
       </c>
@@ -8465,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>11</v>
       </c>
@@ -8503,7 +8422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>12</v>
       </c>
@@ -8541,7 +8460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>13</v>
       </c>
@@ -8579,7 +8498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>64</v>
       </c>
@@ -8617,7 +8536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>65</v>
       </c>
@@ -8655,7 +8574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>14</v>
       </c>
@@ -8693,7 +8612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>15</v>
       </c>
@@ -8731,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>16</v>
       </c>
@@ -8769,7 +8688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>66</v>
       </c>
@@ -8807,7 +8726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>67</v>
       </c>
@@ -8845,7 +8764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>17</v>
       </c>
@@ -8883,7 +8802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>18</v>
       </c>
@@ -8921,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>19</v>
       </c>
@@ -8959,7 +8878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>20</v>
       </c>
@@ -8997,7 +8916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>21</v>
       </c>
@@ -9035,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>22</v>
       </c>
@@ -9073,7 +8992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>68</v>
       </c>
@@ -9111,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>69</v>
       </c>
@@ -9149,7 +9068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
         <v>23</v>
       </c>
@@ -9187,7 +9106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>24</v>
       </c>
@@ -9225,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
         <v>25</v>
       </c>
@@ -9263,7 +9182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>26</v>
       </c>
@@ -9301,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>27</v>
       </c>
@@ -9339,7 +9258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>28</v>
       </c>
@@ -9377,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>70</v>
       </c>
@@ -9415,7 +9334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>71</v>
       </c>
@@ -9453,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>72</v>
       </c>
@@ -9491,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>73</v>
       </c>
@@ -9529,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
         <v>29</v>
       </c>
@@ -9567,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>30</v>
       </c>
@@ -9605,7 +9524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>31</v>
       </c>
@@ -9643,7 +9562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>32</v>
       </c>
@@ -9681,7 +9600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>33</v>
       </c>
@@ -9719,7 +9638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>34</v>
       </c>
@@ -9757,7 +9676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>74</v>
       </c>
@@ -9795,7 +9714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>35</v>
       </c>
@@ -9833,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>36</v>
       </c>
@@ -9871,7 +9790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>37</v>
       </c>
@@ -9909,7 +9828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>75</v>
       </c>
@@ -9947,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>76</v>
       </c>
@@ -9985,7 +9904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>77</v>
       </c>
@@ -10023,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>78</v>
       </c>
@@ -10061,7 +9980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>79</v>
       </c>
@@ -10099,7 +10018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>80</v>
       </c>
@@ -10137,7 +10056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>81</v>
       </c>
@@ -10175,7 +10094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>82</v>
       </c>
@@ -10213,7 +10132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>38</v>
       </c>
@@ -10251,7 +10170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>39</v>
       </c>
@@ -10289,7 +10208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>40</v>
       </c>
@@ -10327,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>83</v>
       </c>
@@ -10365,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>84</v>
       </c>
@@ -10403,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>85</v>
       </c>
@@ -10441,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>86</v>
       </c>
@@ -10479,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>41</v>
       </c>
@@ -10517,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>42</v>
       </c>
@@ -10555,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>43</v>
       </c>
@@ -10593,7 +10512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>87</v>
       </c>
@@ -10631,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>88</v>
       </c>
@@ -10669,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>44</v>
       </c>
@@ -10707,7 +10626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>45</v>
       </c>
@@ -10745,7 +10664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>46</v>
       </c>
@@ -10783,7 +10702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>89</v>
       </c>
@@ -10821,7 +10740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>90</v>
       </c>
@@ -10859,7 +10778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>91</v>
       </c>
@@ -10897,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>92</v>
       </c>
@@ -10935,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -10973,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>94</v>
       </c>
@@ -11011,7 +10930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>95</v>
       </c>
@@ -11049,7 +10968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>96</v>
       </c>
@@ -11087,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>97</v>
       </c>
@@ -11125,7 +11044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>98</v>
       </c>
@@ -11163,7 +11082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>99</v>
       </c>
@@ -11201,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>100</v>
       </c>
@@ -11239,7 +11158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>101</v>
       </c>
@@ -11277,7 +11196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>102</v>
       </c>
@@ -11315,7 +11234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>103</v>
       </c>
@@ -11353,7 +11272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>47</v>
       </c>
@@ -11391,7 +11310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
         <v>48</v>
       </c>
@@ -11429,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>49</v>
       </c>
@@ -11467,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
         <v>50</v>
       </c>
@@ -11505,7 +11424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>51</v>
       </c>
@@ -11543,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>52</v>
       </c>
@@ -11581,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>53</v>
       </c>
@@ -11619,7 +11538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>54</v>
       </c>
@@ -11657,7 +11576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>55</v>
       </c>
@@ -11695,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>104</v>
       </c>
@@ -11733,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -11771,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>57</v>
       </c>
@@ -11809,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>58</v>
       </c>
@@ -11847,7 +11766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>59</v>
       </c>
@@ -11885,7 +11804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
         <v>60</v>
       </c>
@@ -11923,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>61</v>
       </c>
@@ -11961,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>62</v>
       </c>
@@ -11999,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>8</v>
       </c>
@@ -12037,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>9</v>
       </c>
@@ -12075,7 +11994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>10</v>
       </c>
@@ -12113,7 +12032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>63</v>
       </c>
@@ -12151,7 +12070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>11</v>
       </c>
@@ -12189,7 +12108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -12227,7 +12146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -12265,7 +12184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>64</v>
       </c>
@@ -12303,7 +12222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>65</v>
       </c>
@@ -12341,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>14</v>
       </c>
@@ -12379,7 +12298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>15</v>
       </c>
@@ -12417,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -12455,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>66</v>
       </c>
@@ -12493,7 +12412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>67</v>
       </c>
@@ -12531,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>17</v>
       </c>
@@ -12569,7 +12488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>18</v>
       </c>
@@ -12607,7 +12526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
         <v>19</v>
       </c>
@@ -12645,7 +12564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>20</v>
       </c>
@@ -12683,7 +12602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>21</v>
       </c>
@@ -12721,7 +12640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="5" t="s">
         <v>22</v>
       </c>
@@ -12759,7 +12678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>68</v>
       </c>
@@ -12797,7 +12716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>69</v>
       </c>
@@ -12835,7 +12754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>23</v>
       </c>
@@ -12873,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>24</v>
       </c>
@@ -12911,7 +12830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>25</v>
       </c>
@@ -12949,7 +12868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>26</v>
       </c>
@@ -12987,7 +12906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>27</v>
       </c>
@@ -13025,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>28</v>
       </c>
@@ -13063,7 +12982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>70</v>
       </c>
@@ -13101,7 +13020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>71</v>
       </c>
@@ -13139,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>72</v>
       </c>
@@ -13177,7 +13096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>73</v>
       </c>
@@ -13215,7 +13134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>29</v>
       </c>
@@ -13253,7 +13172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>30</v>
       </c>
@@ -13291,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>31</v>
       </c>
@@ -13329,7 +13248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>32</v>
       </c>
@@ -13367,7 +13286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>33</v>
       </c>
@@ -13405,7 +13324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>34</v>
       </c>
@@ -13443,7 +13362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>74</v>
       </c>
@@ -13481,7 +13400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>35</v>
       </c>
@@ -13519,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>36</v>
       </c>
@@ -13557,7 +13476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>37</v>
       </c>
@@ -13595,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>75</v>
       </c>
@@ -13633,7 +13552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>76</v>
       </c>
@@ -13671,7 +13590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>77</v>
       </c>
@@ -13709,7 +13628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>78</v>
       </c>
@@ -13747,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>79</v>
       </c>
@@ -13785,7 +13704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>80</v>
       </c>
@@ -13823,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>81</v>
       </c>
@@ -13861,7 +13780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>82</v>
       </c>
@@ -13899,7 +13818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>38</v>
       </c>
@@ -13937,7 +13856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>39</v>
       </c>
@@ -13975,7 +13894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>40</v>
       </c>
@@ -14013,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>83</v>
       </c>
@@ -14051,7 +13970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>84</v>
       </c>
@@ -14089,7 +14008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>85</v>
       </c>
@@ -14127,7 +14046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>86</v>
       </c>
@@ -14165,7 +14084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>41</v>
       </c>
@@ -14203,7 +14122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>42</v>
       </c>
@@ -14241,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>43</v>
       </c>
@@ -14279,7 +14198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>87</v>
       </c>
@@ -14317,7 +14236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>88</v>
       </c>
@@ -14355,7 +14274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>44</v>
       </c>
@@ -14393,7 +14312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>45</v>
       </c>
@@ -14431,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>46</v>
       </c>
@@ -14469,7 +14388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>89</v>
       </c>
@@ -14507,7 +14426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>90</v>
       </c>
@@ -14545,7 +14464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>91</v>
       </c>
@@ -14583,7 +14502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>92</v>
       </c>
@@ -14621,7 +14540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>93</v>
       </c>
@@ -14659,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>94</v>
       </c>
@@ -14697,7 +14616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>95</v>
       </c>
@@ -14735,7 +14654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>96</v>
       </c>
@@ -14773,7 +14692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>97</v>
       </c>
@@ -14811,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>98</v>
       </c>
@@ -14849,7 +14768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>99</v>
       </c>
@@ -14887,7 +14806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>100</v>
       </c>
@@ -14925,7 +14844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>101</v>
       </c>
@@ -14963,7 +14882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>102</v>
       </c>
@@ -15001,7 +14920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>103</v>
       </c>
@@ -15039,7 +14958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>47</v>
       </c>
@@ -15077,7 +14996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>48</v>
       </c>
@@ -15115,7 +15034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>49</v>
       </c>
@@ -15153,7 +15072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>50</v>
       </c>
@@ -15191,7 +15110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>51</v>
       </c>
@@ -15229,7 +15148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>52</v>
       </c>
@@ -15267,7 +15186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>53</v>
       </c>
@@ -15305,7 +15224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>54</v>
       </c>
@@ -15343,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>55</v>
       </c>
@@ -15381,7 +15300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>104</v>
       </c>
@@ -15419,7 +15338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>56</v>
       </c>
@@ -15457,7 +15376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>57</v>
       </c>
@@ -15495,7 +15414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>58</v>
       </c>
@@ -15533,7 +15452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>59</v>
       </c>
@@ -15571,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>60</v>
       </c>
@@ -15619,25 +15538,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A272" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196:A292"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="6" customWidth="1"/>
-    <col min="2" max="7" width="7.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" style="6" customWidth="1"/>
+    <col min="2" max="7" width="7.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" style="6" customWidth="1"/>
-    <col min="10" max="11" width="9.1796875" style="15"/>
-    <col min="12" max="13" width="9.1796875" style="6"/>
-    <col min="14" max="14" width="9.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.1796875" style="6"/>
+    <col min="9" max="9" width="12.85546875" style="6" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="15"/>
+    <col min="12" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="9.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>0</v>
@@ -15661,19 +15580,19 @@
         <v>6</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
@@ -15711,7 +15630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>62</v>
       </c>
@@ -15749,7 +15668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -15787,7 +15706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -15825,7 +15744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -15863,7 +15782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>63</v>
       </c>
@@ -15901,7 +15820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -15939,7 +15858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>12</v>
       </c>
@@ -15977,7 +15896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -16015,7 +15934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>64</v>
       </c>
@@ -16053,7 +15972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>65</v>
       </c>
@@ -16091,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>14</v>
       </c>
@@ -16129,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>15</v>
       </c>
@@ -16167,7 +16086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -16205,7 +16124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>66</v>
       </c>
@@ -16243,7 +16162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>67</v>
       </c>
@@ -16281,7 +16200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -16319,7 +16238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -16357,7 +16276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -16395,7 +16314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -16433,7 +16352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -16471,7 +16390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -16509,7 +16428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>68</v>
       </c>
@@ -16547,7 +16466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>69</v>
       </c>
@@ -16585,7 +16504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
@@ -16623,7 +16542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -16661,7 +16580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
@@ -16699,7 +16618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>26</v>
       </c>
@@ -16737,7 +16656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>27</v>
       </c>
@@ -16775,7 +16694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>28</v>
       </c>
@@ -16813,7 +16732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>70</v>
       </c>
@@ -16851,7 +16770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>71</v>
       </c>
@@ -16889,7 +16808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>72</v>
       </c>
@@ -16927,7 +16846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>73</v>
       </c>
@@ -16965,7 +16884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -17003,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>30</v>
       </c>
@@ -17041,7 +16960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>31</v>
       </c>
@@ -17079,7 +16998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>32</v>
       </c>
@@ -17117,7 +17036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>33</v>
       </c>
@@ -17155,7 +17074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>34</v>
       </c>
@@ -17193,7 +17112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>74</v>
       </c>
@@ -17231,7 +17150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>35</v>
       </c>
@@ -17269,7 +17188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
@@ -17307,7 +17226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -17345,7 +17264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>75</v>
       </c>
@@ -17383,7 +17302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>76</v>
       </c>
@@ -17421,7 +17340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>77</v>
       </c>
@@ -17459,7 +17378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>78</v>
       </c>
@@ -17497,7 +17416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>79</v>
       </c>
@@ -17535,7 +17454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>80</v>
       </c>
@@ -17573,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>81</v>
       </c>
@@ -17611,7 +17530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>82</v>
       </c>
@@ -17649,7 +17568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>38</v>
       </c>
@@ -17687,7 +17606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>39</v>
       </c>
@@ -17725,7 +17644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>40</v>
       </c>
@@ -17763,7 +17682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>83</v>
       </c>
@@ -17801,7 +17720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>84</v>
       </c>
@@ -17839,7 +17758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>85</v>
       </c>
@@ -17877,7 +17796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>86</v>
       </c>
@@ -17915,7 +17834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>41</v>
       </c>
@@ -17953,7 +17872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>42</v>
       </c>
@@ -17991,7 +17910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>43</v>
       </c>
@@ -18029,7 +17948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>87</v>
       </c>
@@ -18067,7 +17986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>88</v>
       </c>
@@ -18105,7 +18024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>44</v>
       </c>
@@ -18143,7 +18062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>45</v>
       </c>
@@ -18181,7 +18100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -18219,7 +18138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>89</v>
       </c>
@@ -18257,7 +18176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>90</v>
       </c>
@@ -18295,7 +18214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>91</v>
       </c>
@@ -18333,7 +18252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>92</v>
       </c>
@@ -18371,7 +18290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>93</v>
       </c>
@@ -18409,7 +18328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>94</v>
       </c>
@@ -18447,7 +18366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>95</v>
       </c>
@@ -18485,7 +18404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>96</v>
       </c>
@@ -18523,7 +18442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>97</v>
       </c>
@@ -18561,7 +18480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>98</v>
       </c>
@@ -18599,7 +18518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>99</v>
       </c>
@@ -18637,7 +18556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>100</v>
       </c>
@@ -18675,7 +18594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>101</v>
       </c>
@@ -18713,7 +18632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>102</v>
       </c>
@@ -18751,7 +18670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>103</v>
       </c>
@@ -18789,7 +18708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>47</v>
       </c>
@@ -18827,7 +18746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>48</v>
       </c>
@@ -18865,7 +18784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>49</v>
       </c>
@@ -18903,7 +18822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>50</v>
       </c>
@@ -18941,7 +18860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>51</v>
       </c>
@@ -18979,7 +18898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -19017,7 +18936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>53</v>
       </c>
@@ -19055,7 +18974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>54</v>
       </c>
@@ -19093,7 +19012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>55</v>
       </c>
@@ -19131,7 +19050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>104</v>
       </c>
@@ -19169,7 +19088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>56</v>
       </c>
@@ -19207,7 +19126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>57</v>
       </c>
@@ -19245,7 +19164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>58</v>
       </c>
@@ -19283,7 +19202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>59</v>
       </c>
@@ -19321,7 +19240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>60</v>
       </c>
@@ -19359,7 +19278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>61</v>
       </c>
@@ -19397,7 +19316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>62</v>
       </c>
@@ -19435,7 +19354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>8</v>
       </c>
@@ -19473,7 +19392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>9</v>
       </c>
@@ -19511,7 +19430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
@@ -19549,7 +19468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>63</v>
       </c>
@@ -19587,7 +19506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>11</v>
       </c>
@@ -19625,7 +19544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>12</v>
       </c>
@@ -19663,7 +19582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>13</v>
       </c>
@@ -19701,7 +19620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>64</v>
       </c>
@@ -19739,7 +19658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>65</v>
       </c>
@@ -19777,7 +19696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>14</v>
       </c>
@@ -19815,7 +19734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>15</v>
       </c>
@@ -19853,7 +19772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>16</v>
       </c>
@@ -19891,7 +19810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>66</v>
       </c>
@@ -19929,7 +19848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>67</v>
       </c>
@@ -19967,7 +19886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>17</v>
       </c>
@@ -20005,7 +19924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>18</v>
       </c>
@@ -20043,7 +19962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>19</v>
       </c>
@@ -20081,7 +20000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>20</v>
       </c>
@@ -20119,7 +20038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>21</v>
       </c>
@@ -20157,7 +20076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>22</v>
       </c>
@@ -20195,7 +20114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>68</v>
       </c>
@@ -20233,7 +20152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>69</v>
       </c>
@@ -20271,7 +20190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>23</v>
       </c>
@@ -20309,7 +20228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>24</v>
       </c>
@@ -20347,7 +20266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>25</v>
       </c>
@@ -20385,7 +20304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>26</v>
       </c>
@@ -20423,7 +20342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>27</v>
       </c>
@@ -20461,7 +20380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>28</v>
       </c>
@@ -20499,7 +20418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>70</v>
       </c>
@@ -20537,7 +20456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>71</v>
       </c>
@@ -20575,7 +20494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>72</v>
       </c>
@@ -20613,7 +20532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>73</v>
       </c>
@@ -20651,7 +20570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>29</v>
       </c>
@@ -20689,7 +20608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>30</v>
       </c>
@@ -20727,7 +20646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>31</v>
       </c>
@@ -20765,7 +20684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>32</v>
       </c>
@@ -20803,7 +20722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>33</v>
       </c>
@@ -20841,7 +20760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>34</v>
       </c>
@@ -20879,7 +20798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>74</v>
       </c>
@@ -20917,7 +20836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>35</v>
       </c>
@@ -20955,7 +20874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>36</v>
       </c>
@@ -20993,7 +20912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>37</v>
       </c>
@@ -21031,7 +20950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>75</v>
       </c>
@@ -21069,7 +20988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>76</v>
       </c>
@@ -21107,7 +21026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>77</v>
       </c>
@@ -21145,7 +21064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>78</v>
       </c>
@@ -21183,7 +21102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>79</v>
       </c>
@@ -21221,7 +21140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>80</v>
       </c>
@@ -21259,7 +21178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>81</v>
       </c>
@@ -21297,7 +21216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>82</v>
       </c>
@@ -21335,7 +21254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>38</v>
       </c>
@@ -21373,7 +21292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>39</v>
       </c>
@@ -21411,7 +21330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>40</v>
       </c>
@@ -21449,7 +21368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>83</v>
       </c>
@@ -21487,7 +21406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>84</v>
       </c>
@@ -21525,7 +21444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>85</v>
       </c>
@@ -21563,7 +21482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>86</v>
       </c>
@@ -21601,7 +21520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>41</v>
       </c>
@@ -21639,7 +21558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>42</v>
       </c>
@@ -21677,7 +21596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>43</v>
       </c>
@@ -21715,7 +21634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>87</v>
       </c>
@@ -21753,7 +21672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>88</v>
       </c>
@@ -21791,7 +21710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>44</v>
       </c>
@@ -21829,7 +21748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>45</v>
       </c>
@@ -21867,7 +21786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>46</v>
       </c>
@@ -21905,7 +21824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>89</v>
       </c>
@@ -21943,7 +21862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>90</v>
       </c>
@@ -21981,7 +21900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>91</v>
       </c>
@@ -22019,7 +21938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>92</v>
       </c>
@@ -22057,7 +21976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>93</v>
       </c>
@@ -22095,7 +22014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>94</v>
       </c>
@@ -22133,7 +22052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>95</v>
       </c>
@@ -22171,7 +22090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>96</v>
       </c>
@@ -22209,7 +22128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>97</v>
       </c>
@@ -22247,7 +22166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>98</v>
       </c>
@@ -22285,7 +22204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>99</v>
       </c>
@@ -22323,7 +22242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>100</v>
       </c>
@@ -22361,7 +22280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>101</v>
       </c>
@@ -22399,7 +22318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>102</v>
       </c>
@@ -22437,7 +22356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>103</v>
       </c>
@@ -22475,7 +22394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>47</v>
       </c>
@@ -22513,7 +22432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>48</v>
       </c>
@@ -22551,7 +22470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>49</v>
       </c>
@@ -22589,7 +22508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>50</v>
       </c>
@@ -22627,7 +22546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>51</v>
       </c>
@@ -22665,7 +22584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>52</v>
       </c>
@@ -22703,7 +22622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>53</v>
       </c>
@@ -22741,7 +22660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>54</v>
       </c>
@@ -22779,7 +22698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>55</v>
       </c>
@@ -22817,7 +22736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>104</v>
       </c>
@@ -22855,7 +22774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>56</v>
       </c>
@@ -22893,7 +22812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>57</v>
       </c>
@@ -22931,7 +22850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>58</v>
       </c>
@@ -22969,7 +22888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>59</v>
       </c>
@@ -23007,7 +22926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>60</v>
       </c>
@@ -23045,9 +22964,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="B196" s="10" t="s">
         <v>7</v>
@@ -23083,9 +23002,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="B197" s="10" t="s">
         <v>7</v>
@@ -23121,7 +23040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>8</v>
       </c>
@@ -23159,7 +23078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>9</v>
       </c>
@@ -23197,7 +23116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>10</v>
       </c>
@@ -23235,7 +23154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>63</v>
       </c>
@@ -23273,7 +23192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>11</v>
       </c>
@@ -23311,7 +23230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="8" t="s">
         <v>12</v>
       </c>
@@ -23349,7 +23268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>13</v>
       </c>
@@ -23387,7 +23306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>64</v>
       </c>
@@ -23425,9 +23344,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B206" s="10" t="s">
         <v>7</v>
@@ -23463,7 +23382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>14</v>
       </c>
@@ -23501,7 +23420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>15</v>
       </c>
@@ -23539,7 +23458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>16</v>
       </c>
@@ -23577,9 +23496,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="B210" s="10" t="s">
         <v>7</v>
@@ -23615,9 +23534,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="B211" s="10" t="s">
         <v>7</v>
@@ -23653,7 +23572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>17</v>
       </c>
@@ -23691,7 +23610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>18</v>
       </c>
@@ -23729,7 +23648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>19</v>
       </c>
@@ -23767,7 +23686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="8" t="s">
         <v>20</v>
       </c>
@@ -23805,7 +23724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>21</v>
       </c>
@@ -23843,7 +23762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>22</v>
       </c>
@@ -23881,9 +23800,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B218" s="10" t="s">
         <v>7</v>
@@ -23919,9 +23838,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="B219" s="10" t="s">
         <v>7</v>
@@ -23957,9 +23876,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="B220" s="9">
         <v>0</v>
@@ -23995,9 +23914,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="B221" s="9">
         <v>0</v>
@@ -24033,9 +23952,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="B222" s="9">
         <v>0</v>
@@ -24071,9 +23990,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B223" s="9">
         <v>0</v>
@@ -24109,9 +24028,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B224" s="9">
         <v>0</v>
@@ -24147,9 +24066,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B225" s="10" t="s">
         <v>7</v>
@@ -24185,9 +24104,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B226" s="10" t="s">
         <v>7</v>
@@ -24223,9 +24142,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B227" s="10" t="s">
         <v>7</v>
@@ -24261,9 +24180,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B228" s="10" t="s">
         <v>7</v>
@@ -24299,9 +24218,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="B229" s="10" t="s">
         <v>7</v>
@@ -24337,9 +24256,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="B230" s="9">
         <v>0</v>
@@ -24375,9 +24294,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B231" s="9">
         <v>0</v>
@@ -24413,9 +24332,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="B232" s="9">
         <v>0</v>
@@ -24451,9 +24370,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="B233" s="9">
         <v>0</v>
@@ -24489,9 +24408,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="B234" s="9">
         <v>0</v>
@@ -24527,9 +24446,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B235" s="9">
         <v>0</v>
@@ -24565,9 +24484,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="B236" s="10" t="s">
         <v>7</v>
@@ -24603,9 +24522,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B237" s="9">
         <v>0</v>
@@ -24641,9 +24560,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B238" s="9">
         <v>0</v>
@@ -24679,9 +24598,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B239" s="9">
         <v>0</v>
@@ -24717,7 +24636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>75</v>
       </c>
@@ -24755,7 +24674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>76</v>
       </c>
@@ -24793,9 +24712,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B242" s="10" t="s">
         <v>7</v>
@@ -24831,9 +24750,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="B243" s="10" t="s">
         <v>7</v>
@@ -24869,7 +24788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>79</v>
       </c>
@@ -24907,7 +24826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>80</v>
       </c>
@@ -24945,7 +24864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>81</v>
       </c>
@@ -24983,7 +24902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>82</v>
       </c>
@@ -25021,7 +24940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
         <v>38</v>
       </c>
@@ -25059,7 +24978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
         <v>39</v>
       </c>
@@ -25097,7 +25016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>40</v>
       </c>
@@ -25135,7 +25054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>83</v>
       </c>
@@ -25173,7 +25092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>84</v>
       </c>
@@ -25211,9 +25130,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="B253" s="10" t="s">
         <v>7</v>
@@ -25249,7 +25168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>86</v>
       </c>
@@ -25287,7 +25206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
         <v>41</v>
       </c>
@@ -25325,7 +25244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
         <v>42</v>
       </c>
@@ -25363,7 +25282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>43</v>
       </c>
@@ -25401,7 +25320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>87</v>
       </c>
@@ -25439,7 +25358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>88</v>
       </c>
@@ -25477,7 +25396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
         <v>44</v>
       </c>
@@ -25515,7 +25434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
         <v>45</v>
       </c>
@@ -25553,7 +25472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
         <v>46</v>
       </c>
@@ -25591,7 +25510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>89</v>
       </c>
@@ -25629,9 +25548,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="B264" s="10" t="s">
         <v>7</v>
@@ -25667,9 +25586,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>7</v>
@@ -25705,7 +25624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>92</v>
       </c>
@@ -25743,7 +25662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>93</v>
       </c>
@@ -25781,7 +25700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>94</v>
       </c>
@@ -25819,7 +25738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>95</v>
       </c>
@@ -25857,7 +25776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>96</v>
       </c>
@@ -25895,7 +25814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>97</v>
       </c>
@@ -25933,7 +25852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>98</v>
       </c>
@@ -25971,7 +25890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>99</v>
       </c>
@@ -26009,9 +25928,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B274" s="10" t="s">
         <v>7</v>
@@ -26047,7 +25966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>101</v>
       </c>
@@ -26085,7 +26004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>102</v>
       </c>
@@ -26123,7 +26042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>103</v>
       </c>
@@ -26161,7 +26080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
         <v>47</v>
       </c>
@@ -26199,7 +26118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
         <v>48</v>
       </c>
@@ -26237,7 +26156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="s">
         <v>49</v>
       </c>
@@ -26275,7 +26194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="8" t="s">
         <v>50</v>
       </c>
@@ -26313,7 +26232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="s">
         <v>51</v>
       </c>
@@ -26351,7 +26270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="8" t="s">
         <v>52</v>
       </c>
@@ -26389,7 +26308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="s">
         <v>53</v>
       </c>
@@ -26427,7 +26346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>54</v>
       </c>
@@ -26465,7 +26384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>55</v>
       </c>
@@ -26503,9 +26422,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B287" s="10" t="s">
         <v>7</v>
@@ -26541,7 +26460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -26579,7 +26498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>57</v>
       </c>
@@ -26617,7 +26536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>58</v>
       </c>
@@ -26655,7 +26574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>59</v>
       </c>
@@ -26693,7 +26612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="s">
         <v>60</v>
       </c>
@@ -26731,7 +26650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>61</v>
       </c>
@@ -26769,7 +26688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>62</v>
       </c>
@@ -26807,7 +26726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>8</v>
       </c>
@@ -26845,7 +26764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>9</v>
       </c>
@@ -26883,7 +26802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>10</v>
       </c>
@@ -26921,7 +26840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>63</v>
       </c>
@@ -26959,7 +26878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>11</v>
       </c>
@@ -26997,7 +26916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>12</v>
       </c>
@@ -27035,7 +26954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -27073,7 +26992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>64</v>
       </c>
@@ -27111,7 +27030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>65</v>
       </c>
@@ -27149,7 +27068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>14</v>
       </c>
@@ -27187,7 +27106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>15</v>
       </c>
@@ -27225,7 +27144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -27263,7 +27182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>66</v>
       </c>
@@ -27301,7 +27220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>67</v>
       </c>
@@ -27339,7 +27258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>17</v>
       </c>
@@ -27377,7 +27296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>18</v>
       </c>
@@ -27415,7 +27334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>19</v>
       </c>
@@ -27453,7 +27372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="5" t="s">
         <v>20</v>
       </c>
@@ -27491,7 +27410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="5" t="s">
         <v>21</v>
       </c>
@@ -27529,7 +27448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>22</v>
       </c>
@@ -27567,7 +27486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>68</v>
       </c>
@@ -27605,7 +27524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>69</v>
       </c>
@@ -27643,7 +27562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>23</v>
       </c>
@@ -27681,7 +27600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>24</v>
       </c>
@@ -27719,7 +27638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>25</v>
       </c>
@@ -27757,7 +27676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>26</v>
       </c>
@@ -27795,7 +27714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>27</v>
       </c>
@@ -27833,7 +27752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>28</v>
       </c>
@@ -27871,7 +27790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>70</v>
       </c>
@@ -27909,7 +27828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>71</v>
       </c>
@@ -27947,7 +27866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>72</v>
       </c>
@@ -27985,7 +27904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>73</v>
       </c>
@@ -28023,7 +27942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>29</v>
       </c>
@@ -28061,7 +27980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" s="16" t="s">
         <v>30</v>
       </c>
@@ -28099,7 +28018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" s="16" t="s">
         <v>31</v>
       </c>
@@ -28137,7 +28056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>32</v>
       </c>
@@ -28175,7 +28094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" s="16" t="s">
         <v>33</v>
       </c>
@@ -28213,7 +28132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" s="16" t="s">
         <v>34</v>
       </c>
@@ -28251,7 +28170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>74</v>
       </c>
@@ -28289,7 +28208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>35</v>
       </c>
@@ -28327,7 +28246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>36</v>
       </c>
@@ -28365,7 +28284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>37</v>
       </c>
@@ -28403,7 +28322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>75</v>
       </c>
@@ -28441,7 +28360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>76</v>
       </c>
@@ -28479,7 +28398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>77</v>
       </c>
@@ -28517,7 +28436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>78</v>
       </c>
@@ -28555,7 +28474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>79</v>
       </c>
@@ -28593,7 +28512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>80</v>
       </c>
@@ -28631,7 +28550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>81</v>
       </c>
@@ -28669,7 +28588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>82</v>
       </c>
@@ -28707,7 +28626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>38</v>
       </c>
@@ -28745,7 +28664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>39</v>
       </c>
@@ -28783,7 +28702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>40</v>
       </c>
@@ -28821,7 +28740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>83</v>
       </c>
@@ -28859,7 +28778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>84</v>
       </c>
@@ -28897,7 +28816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>85</v>
       </c>
@@ -28935,7 +28854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>86</v>
       </c>
@@ -28973,7 +28892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>41</v>
       </c>
@@ -29011,7 +28930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>42</v>
       </c>
@@ -29049,7 +28968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>43</v>
       </c>
@@ -29087,7 +29006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>87</v>
       </c>
@@ -29125,7 +29044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>88</v>
       </c>
@@ -29163,7 +29082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>44</v>
       </c>
@@ -29201,7 +29120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>45</v>
       </c>
@@ -29239,7 +29158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>46</v>
       </c>
@@ -29277,7 +29196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>89</v>
       </c>
@@ -29315,7 +29234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>90</v>
       </c>
@@ -29353,7 +29272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>91</v>
       </c>
@@ -29391,7 +29310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>92</v>
       </c>
@@ -29429,7 +29348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>93</v>
       </c>
@@ -29467,7 +29386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>94</v>
       </c>
@@ -29505,7 +29424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>95</v>
       </c>
@@ -29543,7 +29462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>96</v>
       </c>
@@ -29581,7 +29500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>97</v>
       </c>
@@ -29619,7 +29538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>98</v>
       </c>
@@ -29657,7 +29576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>99</v>
       </c>
@@ -29695,7 +29614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>100</v>
       </c>
@@ -29733,7 +29652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>101</v>
       </c>
@@ -29771,7 +29690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>102</v>
       </c>
@@ -29809,7 +29728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>103</v>
       </c>
@@ -29847,7 +29766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>47</v>
       </c>
@@ -29885,7 +29804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>48</v>
       </c>
@@ -29923,7 +29842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>49</v>
       </c>
@@ -29961,7 +29880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>50</v>
       </c>
@@ -29999,7 +29918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>51</v>
       </c>
@@ -30037,7 +29956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>52</v>
       </c>
@@ -30075,7 +29994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>53</v>
       </c>
@@ -30113,7 +30032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>54</v>
       </c>
@@ -30151,7 +30070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>55</v>
       </c>
@@ -30189,7 +30108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>104</v>
       </c>
@@ -30227,7 +30146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>56</v>
       </c>
@@ -30265,7 +30184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>57</v>
       </c>
@@ -30303,7 +30222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>58</v>
       </c>
@@ -30341,7 +30260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>59</v>
       </c>
@@ -30379,7 +30298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>60</v>
       </c>
